--- a/notes/后端开发-面试题.xlsx
+++ b/notes/后端开发-面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -479,23 +479,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,24 +523,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,6 +539,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -552,64 +592,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,6 +606,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -648,25 +648,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,139 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,17 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,39 +885,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -935,6 +896,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,156 +938,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,10 +1580,10 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.1666666666667" customWidth="1"/>
@@ -1611,7 +1611,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="115.5" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="90" spans="1:6">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="82.5" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="6" s="2" customFormat="1" ht="105" spans="1:6">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="82.5" spans="1:6">
+    <row r="7" ht="75" spans="1:6">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="82.5" spans="1:6">
+    <row r="8" ht="75" spans="1:6">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="66" spans="1:6">
+    <row r="9" s="3" customFormat="1" ht="60" spans="1:6">
       <c r="A9" s="22">
         <v>6</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="66" spans="1:6">
+    <row r="10" s="2" customFormat="1" ht="62.4" spans="1:6">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="115.5" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="109.2" spans="1:6">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="105" spans="1:6">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="66" spans="1:6">
+    <row r="13" ht="62.4" spans="1:6">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="82.5" spans="1:6">
+    <row r="14" ht="75" spans="1:6">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="115.5" spans="1:6">
+    <row r="15" s="2" customFormat="1" ht="90" spans="1:6">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="66" spans="1:6">
+    <row r="16" ht="60" spans="1:6">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="66" spans="1:6">
+    <row r="17" ht="60" spans="1:6">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="66" spans="1:6">
+    <row r="18" ht="62.4" spans="1:6">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:6">
+    <row r="19" ht="60" spans="1:6">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="82.5" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="82.5" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="264" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="240" spans="1:6">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="66" spans="1:6">
+    <row r="23" ht="60" spans="1:6">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="66" spans="1:6">
+    <row r="24" s="2" customFormat="1" ht="62.4" spans="1:6">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" ht="148.5" spans="1:6">
+    <row r="25" s="3" customFormat="1" ht="140.4" spans="1:6">
       <c r="A25" s="22">
         <v>22</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="99" spans="1:6">
+    <row r="26" ht="93.6" spans="1:6">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="66" spans="1:6">
+    <row r="27" s="2" customFormat="1" ht="62.4" spans="1:6">
       <c r="A27" s="14">
         <v>24</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="66" spans="1:6">
+    <row r="28" s="2" customFormat="1" ht="62.4" spans="1:6">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" ht="94.5" spans="3:6">
+    <row r="29" ht="93.6" spans="3:6">
       <c r="C29" t="s">
         <v>93</v>
       </c>
